--- a/target/classes/Data/invalid_login_data.xlsx
+++ b/target/classes/Data/invalid_login_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="invalidLoginDataSheet" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
